--- a/db/data.xlsx
+++ b/db/data.xlsx
@@ -2682,16 +2682,16 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>13.35807050092764</v>
+        <v>13.34379905808477</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>41.66666666666667</v>
+        <v>38.82352941176471</v>
       </c>
       <c r="F3">
         <v>17</v>
@@ -2700,22 +2700,22 @@
         <v>23.94366197183098</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>22.22222222222222</v>
+        <v>22.35294117647059</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>4.545454545454546</v>
+        <v>4.705882352941178</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>43.75</v>
+        <v>36.84210526315789</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2738,7 +2738,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>3.710575139146568</v>
+        <v>3.139717425431711</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -2841,10 +2841,10 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>1.669758812615955</v>
+        <v>2.354788069073783</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>66.66666666666666</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <v>22.22222222222222</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -3424,16 +3424,16 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>2.040816326530612</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17">
-        <v>45.45454545454545</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3448,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>27.27272727272727</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>66.66666666666666</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3533,7 +3533,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>1.484230055658627</v>
+        <v>1.255886970172684</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -4113,16 +4113,16 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>0.9276437847866421</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -4643,34 +4643,34 @@
         <v>55</v>
       </c>
       <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>1.41287284144427</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="C40">
-        <v>0.9276437847866421</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>40</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>3</v>
-      </c>
       <c r="K40">
-        <v>60</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4682,13 +4682,13 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5226,16 +5226,16 @@
         <v>66</v>
       </c>
       <c r="B51">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C51">
-        <v>16.88311688311688</v>
+        <v>16.16954474097331</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E51">
-        <v>54.94505494505495</v>
+        <v>52.42718446601942</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5247,31 +5247,31 @@
         <v>2</v>
       </c>
       <c r="I51">
-        <v>2.197802197802198</v>
+        <v>1.941747572815533</v>
       </c>
       <c r="J51">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>8.737864077669903</v>
+      </c>
+      <c r="L51">
         <v>7</v>
       </c>
-      <c r="K51">
-        <v>7.692307692307692</v>
-      </c>
-      <c r="L51">
-        <v>6</v>
-      </c>
       <c r="M51">
-        <v>6.976744186046512</v>
+        <v>6.862745098039216</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P51">
         <v>50</v>
       </c>
       <c r="Q51">
-        <v>57.14285714285714</v>
+        <v>55.55555555555556</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5388,7 +5388,7 @@
         <v>36</v>
       </c>
       <c r="C54">
-        <v>6.679035250463822</v>
+        <v>5.651491365777081</v>
       </c>
       <c r="D54">
         <v>21</v>
@@ -5597,16 +5597,16 @@
         <v>73</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C58">
-        <v>4.638218923933209</v>
+        <v>5.651491365777081</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>60</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5618,31 +5618,31 @@
         <v>1</v>
       </c>
       <c r="I58">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="J58">
+        <v>11</v>
+      </c>
+      <c r="K58">
+        <v>30.55555555555556</v>
+      </c>
+      <c r="L58">
         <v>4</v>
       </c>
-      <c r="J58">
-        <v>9</v>
-      </c>
-      <c r="K58">
-        <v>36</v>
-      </c>
-      <c r="L58">
-        <v>2</v>
-      </c>
       <c r="M58">
-        <v>8.333333333333332</v>
+        <v>12.5</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P58">
         <v>100</v>
       </c>
       <c r="Q58">
-        <v>55.55555555555556</v>
+        <v>54.54545454545454</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -5650,22 +5650,22 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>0.9276437847866421</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>80</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>66.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>5</v>
       </c>
       <c r="C60">
-        <v>0.9276437847866421</v>
+        <v>0.784929356357927</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -5756,16 +5756,16 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>0.742115027829313</v>
+        <v>0.784929356357927</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>0.9276437847866421</v>
+        <v>0.784929356357927</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -7190,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -7240,16 +7240,16 @@
         <v>104</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C89">
-        <v>5.194805194805195</v>
+        <v>5.651491365777081</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F89">
         <v>4</v>
@@ -7261,13 +7261,13 @@
         <v>4</v>
       </c>
       <c r="I89">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="J89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K89">
-        <v>14.28571428571428</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="L89">
         <v>4</v>
@@ -7285,7 +7285,7 @@
         <v>50</v>
       </c>
       <c r="Q89">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -7770,16 +7770,16 @@
         <v>114</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -8088,19 +8088,19 @@
         <v>120</v>
       </c>
       <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>0.784929356357927</v>
+      </c>
+      <c r="D105">
         <v>3</v>
       </c>
-      <c r="C105">
-        <v>0.5565862708719851</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
       <c r="E105">
-        <v>66.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G105">
         <v>100</v>
@@ -8194,52 +8194,52 @@
         <v>122</v>
       </c>
       <c r="B107">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C107">
-        <v>12.98701298701299</v>
+        <v>13.0298273155416</v>
       </c>
       <c r="D107">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E107">
-        <v>38.57142857142858</v>
+        <v>38.55421686746988</v>
       </c>
       <c r="F107">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G107">
-        <v>61.42857142857143</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I107">
-        <v>7.142857142857142</v>
+        <v>8.433734939759036</v>
       </c>
       <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107">
+        <v>12.04819277108434</v>
+      </c>
+      <c r="L107">
         <v>9</v>
       </c>
-      <c r="K107">
-        <v>12.85714285714286</v>
-      </c>
-      <c r="L107">
-        <v>7</v>
-      </c>
       <c r="M107">
-        <v>10.14492753623188</v>
+        <v>10.8433734939759</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107">
         <v>3</v>
       </c>
       <c r="P107">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="Q107">
-        <v>33.33333333333333</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -8300,28 +8300,28 @@
         <v>124</v>
       </c>
       <c r="B109">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C109">
-        <v>2.411873840445269</v>
+        <v>2.354788069073783</v>
       </c>
       <c r="D109">
         <v>7</v>
       </c>
       <c r="E109">
-        <v>53.84615384615385</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="F109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G109">
-        <v>46.15384615384615</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -8618,16 +8618,16 @@
         <v>130</v>
       </c>
       <c r="B115">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C115">
-        <v>10.01855287569573</v>
+        <v>9.262166405023548</v>
       </c>
       <c r="D115">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E115">
-        <v>48.14814814814815</v>
+        <v>49.15254237288136</v>
       </c>
       <c r="F115">
         <v>12</v>
@@ -8642,16 +8642,16 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K115">
-        <v>7.407407407407406</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="L115">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M115">
-        <v>16</v>
+        <v>16.94915254237288</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -8777,49 +8777,49 @@
         <v>133</v>
       </c>
       <c r="B118">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C118">
-        <v>4.452690166975881</v>
+        <v>5.337519623233909</v>
       </c>
       <c r="D118">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E118">
-        <v>50</v>
+        <v>55.88235294117647</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118">
-        <v>4.166666666666666</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>4.166666666666666</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="J118">
         <v>5</v>
       </c>
       <c r="K118">
-        <v>20.83333333333334</v>
+        <v>14.70588235294118</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>20</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O118">
         <v>4</v>
       </c>
       <c r="P118">
-        <v>100</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Q118">
         <v>80</v>
@@ -9098,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -10155,10 +10155,10 @@
         <v>159</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>0.185528756957328</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>1</v>
       </c>
       <c r="I144">
-        <v>100</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -10314,16 +10314,16 @@
         <v>162</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -10338,28 +10338,28 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N147">
         <v>0</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147">
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -10473,22 +10473,22 @@
         <v>165</v>
       </c>
       <c r="B150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150">
-        <v>1.11317254174397</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="F150">
         <v>2</v>
       </c>
-      <c r="E150">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
       <c r="G150">
-        <v>20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -10497,10 +10497,10 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K150">
-        <v>16.66666666666666</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L150">
         <v>1</v>
@@ -10512,13 +10512,13 @@
         <v>0</v>
       </c>
       <c r="O150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P150">
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:17">
@@ -10529,7 +10529,7 @@
         <v>5</v>
       </c>
       <c r="C151">
-        <v>0.9276437847866421</v>
+        <v>0.784929356357927</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -10635,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -10791,16 +10791,16 @@
         <v>171</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C156">
-        <v>4.081632653061225</v>
+        <v>3.610675039246468</v>
       </c>
       <c r="D156">
         <v>12</v>
       </c>
       <c r="E156">
-        <v>54.54545454545454</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -10818,7 +10818,7 @@
         <v>6</v>
       </c>
       <c r="K156">
-        <v>27.27272727272727</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L156">
         <v>12</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="C157">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -10897,16 +10897,16 @@
         <v>173</v>
       </c>
       <c r="B158">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C158">
-        <v>12.05936920222635</v>
+        <v>11.9309262166405</v>
       </c>
       <c r="D158">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E158">
-        <v>44.61538461538462</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -10915,34 +10915,34 @@
         <v>3.846153846153846</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="J158">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K158">
-        <v>23.07692307692308</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L158">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M158">
-        <v>29.23076923076923</v>
+        <v>28.94736842105263</v>
       </c>
       <c r="N158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O158">
         <v>8</v>
       </c>
       <c r="P158">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q158">
-        <v>53.33333333333334</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -11003,10 +11003,10 @@
         <v>175</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -11162,19 +11162,19 @@
         <v>178</v>
       </c>
       <c r="B163">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163">
-        <v>1.11317254174397</v>
+        <v>1.255886970172684</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G163">
         <v>25</v>
@@ -11189,7 +11189,7 @@
         <v>3</v>
       </c>
       <c r="K163">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="L163">
         <v>1</v>
@@ -11218,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -11321,22 +11321,22 @@
         <v>181</v>
       </c>
       <c r="B166">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C166">
-        <v>2.968460111317254</v>
+        <v>3.453689167974882</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E166">
-        <v>62.5</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G166">
-        <v>8.333333333333332</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -11348,13 +11348,13 @@
         <v>1</v>
       </c>
       <c r="K166">
-        <v>6.25</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L166">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M166">
-        <v>31.25</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -11851,22 +11851,22 @@
         <v>191</v>
       </c>
       <c r="B176">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C176">
-        <v>7.421150278293136</v>
+        <v>7.378335949764521</v>
       </c>
       <c r="D176">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E176">
-        <v>52.5</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="F176">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G176">
-        <v>69.23076923076923</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -11875,16 +11875,16 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K176">
-        <v>10</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L176">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M176">
-        <v>32.5</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" spans="1:17">
@@ -11960,7 +11960,7 @@
         <v>3</v>
       </c>
       <c r="C178">
-        <v>0.5565862708719851</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -12010,22 +12010,22 @@
         <v>194</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C179">
-        <v>0.185528756957328</v>
+        <v>0.784929356357927</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G179">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -12040,10 +12040,10 @@
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -12116,16 +12116,16 @@
         <v>196</v>
       </c>
       <c r="B181">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C181">
-        <v>3.710575139146568</v>
+        <v>3.924646781789639</v>
       </c>
       <c r="D181">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E181">
-        <v>55.00000000000001</v>
+        <v>52</v>
       </c>
       <c r="F181">
         <v>5</v>
@@ -12140,10 +12140,10 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K181">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L181">
         <v>1</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>71.42857142857143</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="182" spans="1:17">
@@ -12169,16 +12169,16 @@
         <v>197</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C182">
-        <v>0.742115027829313</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -12193,10 +12193,10 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L182">
         <v>1</v>
@@ -12434,52 +12434,52 @@
         <v>202</v>
       </c>
       <c r="B187">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="C187">
-        <v>83.48794063079778</v>
+        <v>80.37676609105181</v>
       </c>
       <c r="D187">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="E187">
-        <v>53.55555555555556</v>
+        <v>52.1484375</v>
       </c>
       <c r="F187">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G187">
-        <v>1.098901098901099</v>
+        <v>0.984251968503937</v>
       </c>
       <c r="H187">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="I187">
-        <v>22.88888888888889</v>
+        <v>23.4375</v>
       </c>
       <c r="J187">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K187">
-        <v>3.555555555555555</v>
+        <v>3.3203125</v>
       </c>
       <c r="L187">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M187">
-        <v>6.473214285714286</v>
+        <v>6.237006237006238</v>
       </c>
       <c r="N187">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="O187">
         <v>7</v>
       </c>
       <c r="P187">
-        <v>58.25242718446601</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="Q187">
-        <v>43.75</v>
+        <v>41.17647058823529</v>
       </c>
     </row>
     <row r="188" spans="1:17">
@@ -12593,16 +12593,16 @@
         <v>205</v>
       </c>
       <c r="B190">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C190">
-        <v>23.19109461966605</v>
+        <v>22.13500784929357</v>
       </c>
       <c r="D190">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E190">
-        <v>58.4</v>
+        <v>56.73758865248227</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -12614,19 +12614,19 @@
         <v>6</v>
       </c>
       <c r="I190">
-        <v>4.8</v>
+        <v>4.25531914893617</v>
       </c>
       <c r="J190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K190">
-        <v>1.6</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L190">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M190">
-        <v>14.51612903225807</v>
+        <v>13.97058823529412</v>
       </c>
       <c r="N190">
         <v>3</v>
@@ -12646,10 +12646,10 @@
         <v>206</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C191">
-        <v>0.371057513914656</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -12676,10 +12676,10 @@
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -12967,7 +12967,7 @@
         <v>2</v>
       </c>
       <c r="C197">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -13391,7 +13391,7 @@
         <v>4</v>
       </c>
       <c r="C205">
-        <v>0.742115027829313</v>
+        <v>0.627943485086342</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -13441,13 +13441,13 @@
         <v>221</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206">
-        <v>0.185528756957328</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E206">
         <v>100</v>
@@ -13468,10 +13468,10 @@
         <v>1</v>
       </c>
       <c r="K206">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M206">
         <v>100</v>
@@ -13494,52 +13494,52 @@
         <v>222</v>
       </c>
       <c r="B207">
+        <v>20</v>
+      </c>
+      <c r="C207">
+        <v>3.139717425431711</v>
+      </c>
+      <c r="D207">
         <v>11</v>
       </c>
-      <c r="C207">
-        <v>2.040816326530612</v>
-      </c>
-      <c r="D207">
-        <v>6</v>
-      </c>
       <c r="E207">
-        <v>54.54545454545454</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="F207">
+        <v>12</v>
+      </c>
+      <c r="G207">
+        <v>60</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
         <v>5</v>
       </c>
-      <c r="G207">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="J207">
+      <c r="K207">
+        <v>25</v>
+      </c>
+      <c r="L207">
         <v>3</v>
       </c>
-      <c r="K207">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L207">
-        <v>2</v>
-      </c>
       <c r="M207">
-        <v>20</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="N207">
         <v>0</v>
       </c>
       <c r="O207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P207">
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>66.66666666666666</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:17">
@@ -13709,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="C211">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -13762,7 +13762,7 @@
         <v>3</v>
       </c>
       <c r="C212">
-        <v>0.5565862708719851</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -14024,22 +14024,22 @@
         <v>232</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -14077,22 +14077,22 @@
         <v>233</v>
       </c>
       <c r="B218">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218">
-        <v>0.9276437847866421</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G218">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -14104,7 +14104,7 @@
         <v>1</v>
       </c>
       <c r="K218">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L218">
         <v>2</v>
@@ -14130,16 +14130,16 @@
         <v>234</v>
       </c>
       <c r="B219">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C219">
-        <v>1.298701298701298</v>
+        <v>1.569858712715855</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E219">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -14183,16 +14183,16 @@
         <v>235</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C220">
-        <v>0.5565862708719851</v>
+        <v>0.627943485086342</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -14210,7 +14210,7 @@
         <v>2</v>
       </c>
       <c r="K220">
-        <v>66.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -14395,16 +14395,16 @@
         <v>239</v>
       </c>
       <c r="B224">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="C224">
-        <v>38.96103896103897</v>
+        <v>37.99058084772371</v>
       </c>
       <c r="D224">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E224">
-        <v>45.71428571428572</v>
+        <v>47.5206611570248</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -14416,31 +14416,31 @@
         <v>11</v>
       </c>
       <c r="I224">
-        <v>5.238095238095238</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="J224">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K224">
-        <v>6.666666666666667</v>
+        <v>7.024793388429752</v>
       </c>
       <c r="L224">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M224">
-        <v>16.01941747572816</v>
+        <v>16.30901287553648</v>
       </c>
       <c r="N224">
         <v>6</v>
       </c>
       <c r="O224">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P224">
         <v>54.54545454545454</v>
       </c>
       <c r="Q224">
-        <v>64.28571428571429</v>
+        <v>64.70588235294117</v>
       </c>
     </row>
     <row r="225" spans="1:17">
@@ -14504,7 +14504,7 @@
         <v>5</v>
       </c>
       <c r="C226">
-        <v>0.9276437847866421</v>
+        <v>0.784929356357927</v>
       </c>
       <c r="D226">
         <v>2</v>
@@ -14557,7 +14557,7 @@
         <v>1</v>
       </c>
       <c r="C227">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -15296,16 +15296,16 @@
         <v>256</v>
       </c>
       <c r="B241">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C241">
-        <v>15.0278293135436</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="D241">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E241">
-        <v>59.25925925925925</v>
+        <v>59.18367346938776</v>
       </c>
       <c r="F241">
         <v>2</v>
@@ -15320,28 +15320,28 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K241">
-        <v>27.16049382716049</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L241">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M241">
-        <v>15.06849315068493</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="N241">
         <v>0</v>
       </c>
       <c r="O241">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P241">
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>54.54545454545454</v>
+        <v>53.57142857142857</v>
       </c>
     </row>
     <row r="242" spans="1:17">
@@ -15508,16 +15508,16 @@
         <v>260</v>
       </c>
       <c r="B245">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C245">
-        <v>27.08719851576994</v>
+        <v>27.1585557299843</v>
       </c>
       <c r="D245">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E245">
-        <v>45.89041095890411</v>
+        <v>46.24277456647399</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -15529,31 +15529,31 @@
         <v>4</v>
       </c>
       <c r="I245">
-        <v>2.73972602739726</v>
+        <v>2.312138728323699</v>
       </c>
       <c r="J245">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K245">
-        <v>23.28767123287671</v>
+        <v>21.96531791907514</v>
       </c>
       <c r="L245">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M245">
-        <v>10</v>
+        <v>11.51515151515152</v>
       </c>
       <c r="N245">
         <v>1</v>
       </c>
       <c r="O245">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P245">
         <v>25</v>
       </c>
       <c r="Q245">
-        <v>38.23529411764706</v>
+        <v>39.47368421052632</v>
       </c>
     </row>
     <row r="246" spans="1:17">
@@ -15935,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="C253">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -15985,16 +15985,16 @@
         <v>269</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -16015,10 +16015,10 @@
         <v>0</v>
       </c>
       <c r="L254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M254">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N254">
         <v>0</v>
@@ -16409,16 +16409,16 @@
         <v>277</v>
       </c>
       <c r="B262">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C262">
-        <v>2.22634508348794</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="D262">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E262">
-        <v>58.33333333333334</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="F262">
         <v>1</v>
@@ -16436,13 +16436,13 @@
         <v>1</v>
       </c>
       <c r="K262">
-        <v>8.333333333333332</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M262">
-        <v>50</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -16568,10 +16568,10 @@
         <v>280</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -16674,34 +16674,34 @@
         <v>282</v>
       </c>
       <c r="B267">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C267">
-        <v>2.411873840445269</v>
+        <v>2.354788069073783</v>
       </c>
       <c r="D267">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E267">
-        <v>69.23076923076923</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F267">
+        <v>5</v>
+      </c>
+      <c r="G267">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
         <v>4</v>
       </c>
-      <c r="G267">
-        <v>50</v>
-      </c>
-      <c r="H267">
-        <v>0</v>
-      </c>
-      <c r="I267">
-        <v>0</v>
-      </c>
-      <c r="J267">
-        <v>3</v>
-      </c>
       <c r="K267">
-        <v>23.07692307692308</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L267">
         <v>1</v>
@@ -16713,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="O267">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P267">
         <v>0</v>
@@ -17048,7 +17048,7 @@
         <v>4</v>
       </c>
       <c r="C274">
-        <v>0.742115027829313</v>
+        <v>0.627943485086342</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -17204,16 +17204,16 @@
         <v>292</v>
       </c>
       <c r="B277">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C277">
-        <v>1.484230055658627</v>
+        <v>1.41287284144427</v>
       </c>
       <c r="D277">
         <v>4</v>
       </c>
       <c r="E277">
-        <v>50</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F277">
         <v>4</v>
@@ -17225,13 +17225,13 @@
         <v>1</v>
       </c>
       <c r="I277">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="J277">
         <v>1</v>
       </c>
       <c r="K277">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L277">
         <v>1</v>
@@ -17257,22 +17257,22 @@
         <v>293</v>
       </c>
       <c r="B278">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C278">
-        <v>12.80148423005566</v>
+        <v>12.08791208791209</v>
       </c>
       <c r="D278">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E278">
-        <v>46.3768115942029</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="F278">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G278">
-        <v>31.34328358208955</v>
+        <v>30.26315789473684</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -17281,28 +17281,28 @@
         <v>0</v>
       </c>
       <c r="J278">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K278">
-        <v>30.43478260869566</v>
+        <v>31.16883116883117</v>
       </c>
       <c r="L278">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M278">
-        <v>28.98550724637681</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="N278">
         <v>0</v>
       </c>
       <c r="O278">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P278">
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>47.61904761904761</v>
+        <v>50</v>
       </c>
     </row>
     <row r="279" spans="1:17">
@@ -17310,52 +17310,52 @@
         <v>294</v>
       </c>
       <c r="B279">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="C279">
-        <v>70.68645640074212</v>
+        <v>69.5447409733124</v>
       </c>
       <c r="D279">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="E279">
-        <v>56.43044619422572</v>
+        <v>56.20767494356659</v>
       </c>
       <c r="F279">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="G279">
-        <v>68.76640419947506</v>
+        <v>67.72727272727272</v>
       </c>
       <c r="H279">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I279">
-        <v>19.68503937007874</v>
+        <v>19.41309255079007</v>
       </c>
       <c r="J279">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K279">
-        <v>1.837270341207349</v>
+        <v>2.031602708803611</v>
       </c>
       <c r="L279">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="M279">
-        <v>27.70448548812665</v>
+        <v>29.1196388261851</v>
       </c>
       <c r="N279">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O279">
         <v>6</v>
       </c>
       <c r="P279">
-        <v>54.66666666666666</v>
+        <v>54.65116279069767</v>
       </c>
       <c r="Q279">
-        <v>85.71428571428571</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="280" spans="1:17">
@@ -17416,40 +17416,40 @@
         <v>296</v>
       </c>
       <c r="B281">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C281">
-        <v>17.06864564007421</v>
+        <v>17.58241758241758</v>
       </c>
       <c r="D281">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E281">
-        <v>54.34782608695652</v>
+        <v>49.10714285714285</v>
       </c>
       <c r="F281">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G281">
-        <v>25.88235294117647</v>
+        <v>25.22522522522522</v>
       </c>
       <c r="H281">
         <v>7</v>
       </c>
       <c r="I281">
-        <v>7.608695652173914</v>
+        <v>6.25</v>
       </c>
       <c r="J281">
         <v>3</v>
       </c>
       <c r="K281">
-        <v>3.260869565217391</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="L281">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M281">
-        <v>43.95604395604396</v>
+        <v>43.51851851851852</v>
       </c>
       <c r="N281">
         <v>5</v>
@@ -17840,49 +17840,49 @@
         <v>304</v>
       </c>
       <c r="B289">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C289">
-        <v>3.153988868274583</v>
+        <v>3.610675039246468</v>
       </c>
       <c r="D289">
+        <v>8</v>
+      </c>
+      <c r="E289">
+        <v>34.78260869565217</v>
+      </c>
+      <c r="F289">
+        <v>11</v>
+      </c>
+      <c r="G289">
+        <v>47.82608695652174</v>
+      </c>
+      <c r="H289">
         <v>4</v>
       </c>
-      <c r="E289">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="F289">
-        <v>7</v>
-      </c>
-      <c r="G289">
-        <v>43.75</v>
-      </c>
-      <c r="H289">
-        <v>2</v>
-      </c>
       <c r="I289">
-        <v>11.76470588235294</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="J289">
         <v>1</v>
       </c>
       <c r="K289">
-        <v>5.88235294117647</v>
+        <v>4.347826086956521</v>
       </c>
       <c r="L289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M289">
-        <v>100</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="N289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O289">
         <v>1</v>
       </c>
       <c r="P289">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q289">
         <v>100</v>
@@ -18214,7 +18214,7 @@
         <v>1</v>
       </c>
       <c r="C296">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -18476,16 +18476,16 @@
         <v>316</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C301">
-        <v>0.371057513914656</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F301">
         <v>1</v>
@@ -18500,10 +18500,10 @@
         <v>0</v>
       </c>
       <c r="J301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K301">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L301">
         <v>0</v>
@@ -18515,13 +18515,13 @@
         <v>0</v>
       </c>
       <c r="O301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P301">
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:17">
@@ -18529,16 +18529,16 @@
         <v>317</v>
       </c>
       <c r="B302">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C302">
-        <v>6.493506493506493</v>
+        <v>6.436420722135009</v>
       </c>
       <c r="D302">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E302">
-        <v>51.42857142857142</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="F302">
         <v>1</v>
@@ -18553,16 +18553,16 @@
         <v>0</v>
       </c>
       <c r="J302">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K302">
-        <v>22.85714285714286</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L302">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M302">
-        <v>32.35294117647059</v>
+        <v>40</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="303" spans="1:17">
@@ -18582,16 +18582,16 @@
         <v>318</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C303">
-        <v>0.185528756957328</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D303">
         <v>1</v>
       </c>
       <c r="E303">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -18635,10 +18635,10 @@
         <v>319</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -18665,10 +18665,10 @@
         <v>0</v>
       </c>
       <c r="L304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M304">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N304">
         <v>0</v>
@@ -18850,7 +18850,7 @@
         <v>3</v>
       </c>
       <c r="C308">
-        <v>0.5565862708719851</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -18903,7 +18903,7 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -19165,22 +19165,22 @@
         <v>329</v>
       </c>
       <c r="B314">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C314">
-        <v>9.833024118738404</v>
+        <v>8.634222919937205</v>
       </c>
       <c r="D314">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E314">
-        <v>43.39622641509434</v>
+        <v>43.63636363636363</v>
       </c>
       <c r="F314">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G314">
-        <v>38.77551020408163</v>
+        <v>38.18181818181819</v>
       </c>
       <c r="H314">
         <v>0</v>
@@ -19189,10 +19189,10 @@
         <v>0</v>
       </c>
       <c r="J314">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K314">
-        <v>26.41509433962264</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L314">
         <v>8</v>
@@ -19210,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>50</v>
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="315" spans="1:17">
@@ -19221,7 +19221,7 @@
         <v>2</v>
       </c>
       <c r="C315">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -19589,16 +19589,16 @@
         <v>337</v>
       </c>
       <c r="B322">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C322">
-        <v>1.855287569573284</v>
+        <v>1.726844583987441</v>
       </c>
       <c r="D322">
         <v>6</v>
       </c>
       <c r="E322">
-        <v>60</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -19616,13 +19616,13 @@
         <v>4</v>
       </c>
       <c r="K322">
-        <v>40</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M322">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="N322">
         <v>0</v>
@@ -19801,16 +19801,16 @@
         <v>341</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -19854,16 +19854,16 @@
         <v>342</v>
       </c>
       <c r="B327">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C327">
-        <v>4.638218923933209</v>
+        <v>5.180533751962323</v>
       </c>
       <c r="D327">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E327">
-        <v>36</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F327">
         <v>4</v>
@@ -19881,13 +19881,13 @@
         <v>7</v>
       </c>
       <c r="K327">
-        <v>28</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L327">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M327">
-        <v>21.73913043478261</v>
+        <v>18.75</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -19907,52 +19907,52 @@
         <v>343</v>
       </c>
       <c r="B328">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C328">
-        <v>11.68831168831169</v>
+        <v>11.77394034536892</v>
       </c>
       <c r="D328">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E328">
-        <v>49.2063492063492</v>
+        <v>48</v>
       </c>
       <c r="F328">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G328">
-        <v>19.67213114754098</v>
+        <v>17.80821917808219</v>
       </c>
       <c r="H328">
         <v>1</v>
       </c>
       <c r="I328">
-        <v>1.587301587301587</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J328">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K328">
-        <v>17.46031746031746</v>
+        <v>16</v>
       </c>
       <c r="L328">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M328">
-        <v>52.38095238095239</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="N328">
         <v>0</v>
       </c>
       <c r="O328">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P328">
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>54.54545454545454</v>
+        <v>58.33333333333334</v>
       </c>
     </row>
     <row r="329" spans="1:17">
@@ -19960,22 +19960,22 @@
         <v>344</v>
       </c>
       <c r="B329">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C329">
-        <v>6.307977736549166</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="D329">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E329">
-        <v>41.17647058823529</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="F329">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G329">
-        <v>57.57575757575758</v>
+        <v>56.41025641025641</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -19987,7 +19987,7 @@
         <v>2</v>
       </c>
       <c r="K329">
-        <v>5.88235294117647</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="L329">
         <v>4</v>
@@ -20013,22 +20013,22 @@
         <v>345</v>
       </c>
       <c r="B330">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C330">
-        <v>9.276437847866418</v>
+        <v>8.948194662480377</v>
       </c>
       <c r="D330">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E330">
-        <v>44</v>
+        <v>40.35087719298245</v>
       </c>
       <c r="F330">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G330">
-        <v>10.41666666666667</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="H330">
         <v>0</v>
@@ -20040,13 +20040,13 @@
         <v>1</v>
       </c>
       <c r="K330">
-        <v>2</v>
+        <v>1.75438596491228</v>
       </c>
       <c r="L330">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M330">
-        <v>29.78723404255319</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="N330">
         <v>0</v>
@@ -20225,34 +20225,34 @@
         <v>349</v>
       </c>
       <c r="B334">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C334">
-        <v>2.411873840445269</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="D334">
         <v>4</v>
       </c>
       <c r="E334">
-        <v>30.76923076923077</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F334">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G334">
-        <v>40</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="H334">
         <v>1</v>
       </c>
       <c r="I334">
-        <v>7.692307692307692</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K334">
-        <v>15.38461538461539</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L334">
         <v>3</v>
@@ -20270,7 +20270,7 @@
         <v>100</v>
       </c>
       <c r="Q334">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="335" spans="1:17">
@@ -20278,22 +20278,22 @@
         <v>350</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -20331,52 +20331,52 @@
         <v>351</v>
       </c>
       <c r="B336">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C336">
-        <v>17.81076066790352</v>
+        <v>16.16954474097331</v>
       </c>
       <c r="D336">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E336">
-        <v>52.08333333333334</v>
+        <v>53.39805825242718</v>
       </c>
       <c r="F336">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G336">
-        <v>58.94736842105262</v>
+        <v>59.22330097087378</v>
       </c>
       <c r="H336">
         <v>3</v>
       </c>
       <c r="I336">
-        <v>3.125</v>
+        <v>2.912621359223301</v>
       </c>
       <c r="J336">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K336">
-        <v>6.25</v>
+        <v>6.796116504854369</v>
       </c>
       <c r="L336">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M336">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N336">
         <v>2</v>
       </c>
       <c r="O336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P336">
         <v>66.66666666666666</v>
       </c>
       <c r="Q336">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="337" spans="1:17">
@@ -20387,7 +20387,7 @@
         <v>7</v>
       </c>
       <c r="C337">
-        <v>1.298701298701298</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="D337">
         <v>7</v>
@@ -20440,7 +20440,7 @@
         <v>6</v>
       </c>
       <c r="C338">
-        <v>1.11317254174397</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D338">
         <v>3</v>
@@ -20649,10 +20649,10 @@
         <v>357</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C342">
-        <v>0.371057513914656</v>
+        <v>0.627943485086342</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -20673,10 +20673,10 @@
         <v>0</v>
       </c>
       <c r="J342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K342">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L342">
         <v>0</v>
@@ -20864,7 +20864,7 @@
         <v>1</v>
       </c>
       <c r="C346">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -20914,34 +20914,34 @@
         <v>362</v>
       </c>
       <c r="B347">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C347">
-        <v>6.122448979591836</v>
+        <v>6.593406593406594</v>
       </c>
       <c r="D347">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E347">
-        <v>54.54545454545454</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="F347">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G347">
-        <v>31.25</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="J347">
         <v>7</v>
       </c>
       <c r="K347">
-        <v>21.21212121212121</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L347">
         <v>9</v>
@@ -20970,7 +20970,7 @@
         <v>1</v>
       </c>
       <c r="C348">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -21020,52 +21020,52 @@
         <v>364</v>
       </c>
       <c r="B349">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C349">
-        <v>8.348794063079778</v>
+        <v>7.378335949764521</v>
       </c>
       <c r="D349">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E349">
-        <v>48.88888888888889</v>
+        <v>51.06382978723404</v>
       </c>
       <c r="F349">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G349">
-        <v>34.09090909090909</v>
+        <v>34.04255319148936</v>
       </c>
       <c r="H349">
         <v>4</v>
       </c>
       <c r="I349">
-        <v>8.888888888888889</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="J349">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K349">
-        <v>6.666666666666667</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="L349">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M349">
-        <v>40</v>
+        <v>41.30434782608695</v>
       </c>
       <c r="N349">
         <v>3</v>
       </c>
       <c r="O349">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P349">
         <v>75</v>
       </c>
       <c r="Q349">
-        <v>66.66666666666666</v>
+        <v>75</v>
       </c>
     </row>
     <row r="350" spans="1:17">
@@ -21076,7 +21076,7 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -21232,16 +21232,16 @@
         <v>368</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C353">
-        <v>0</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -21262,10 +21262,10 @@
         <v>0</v>
       </c>
       <c r="L353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M353">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N353">
         <v>0</v>
@@ -21709,22 +21709,22 @@
         <v>377</v>
       </c>
       <c r="B362">
+        <v>10</v>
+      </c>
+      <c r="C362">
+        <v>1.569858712715855</v>
+      </c>
+      <c r="D362">
+        <v>6</v>
+      </c>
+      <c r="E362">
+        <v>60</v>
+      </c>
+      <c r="F362">
         <v>8</v>
       </c>
-      <c r="C362">
-        <v>1.484230055658627</v>
-      </c>
-      <c r="D362">
-        <v>4</v>
-      </c>
-      <c r="E362">
-        <v>50</v>
-      </c>
-      <c r="F362">
-        <v>7</v>
-      </c>
       <c r="G362">
-        <v>87.5</v>
+        <v>80</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -21736,7 +21736,7 @@
         <v>3</v>
       </c>
       <c r="K362">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="L362">
         <v>0</v>
@@ -21921,16 +21921,16 @@
         <v>381</v>
       </c>
       <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366">
+        <v>0.313971742543171</v>
+      </c>
+      <c r="D366">
         <v>1</v>
       </c>
-      <c r="C366">
-        <v>0.185528756957328</v>
-      </c>
-      <c r="D366">
-        <v>0</v>
-      </c>
       <c r="E366">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -22030,7 +22030,7 @@
         <v>1</v>
       </c>
       <c r="C368">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -22875,10 +22875,10 @@
         <v>399</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C384">
-        <v>0.185528756957328</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -22905,10 +22905,10 @@
         <v>0</v>
       </c>
       <c r="L384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M384">
-        <v>100</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -22928,22 +22928,22 @@
         <v>400</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C385">
-        <v>1.298701298701298</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="D385">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E385">
-        <v>57.14285714285714</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="F385">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G385">
-        <v>71.42857142857143</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="H385">
         <v>0</v>
@@ -22952,10 +22952,10 @@
         <v>0</v>
       </c>
       <c r="J385">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K385">
-        <v>28.57142857142857</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L385">
         <v>1</v>
@@ -22967,7 +22967,7 @@
         <v>0</v>
       </c>
       <c r="O385">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P385">
         <v>0</v>
@@ -22981,22 +22981,22 @@
         <v>401</v>
       </c>
       <c r="B386">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C386">
-        <v>19.48051948051948</v>
+        <v>18.5243328100471</v>
       </c>
       <c r="D386">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E386">
-        <v>40.95238095238095</v>
+        <v>42.3728813559322</v>
       </c>
       <c r="F386">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G386">
-        <v>37.75510204081633</v>
+        <v>35.8974358974359</v>
       </c>
       <c r="H386">
         <v>0</v>
@@ -23008,13 +23008,13 @@
         <v>10</v>
       </c>
       <c r="K386">
-        <v>9.523809523809524</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="L386">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M386">
-        <v>25</v>
+        <v>22.03389830508474</v>
       </c>
       <c r="N386">
         <v>0</v>
@@ -23037,7 +23037,7 @@
         <v>1</v>
       </c>
       <c r="C387">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -23193,22 +23193,22 @@
         <v>405</v>
       </c>
       <c r="B390">
+        <v>4</v>
+      </c>
+      <c r="C390">
+        <v>0.627943485086342</v>
+      </c>
+      <c r="D390">
+        <v>2</v>
+      </c>
+      <c r="E390">
+        <v>50</v>
+      </c>
+      <c r="F390">
         <v>1</v>
       </c>
-      <c r="C390">
-        <v>0.185528756957328</v>
-      </c>
-      <c r="D390">
-        <v>1</v>
-      </c>
-      <c r="E390">
-        <v>100</v>
-      </c>
-      <c r="F390">
-        <v>0</v>
-      </c>
       <c r="G390">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H390">
         <v>0</v>
@@ -23246,16 +23246,16 @@
         <v>406</v>
       </c>
       <c r="B391">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C391">
-        <v>3.896103896103896</v>
+        <v>4.081632653061225</v>
       </c>
       <c r="D391">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E391">
-        <v>33.33333333333333</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="F391">
         <v>2</v>
@@ -23264,16 +23264,16 @@
         <v>20</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391">
-        <v>0</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="J391">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K391">
-        <v>0</v>
+        <v>7.692307692307692</v>
       </c>
       <c r="L391">
         <v>5</v>
@@ -23285,13 +23285,13 @@
         <v>0</v>
       </c>
       <c r="O391">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P391">
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="1:17">
@@ -23302,7 +23302,7 @@
         <v>1</v>
       </c>
       <c r="C392">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -23352,52 +23352,52 @@
         <v>408</v>
       </c>
       <c r="B393">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C393">
-        <v>4.638218923933209</v>
+        <v>4.23861852433281</v>
       </c>
       <c r="D393">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E393">
-        <v>28</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F393">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G393">
-        <v>37.5</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H393">
         <v>1</v>
       </c>
       <c r="I393">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="J393">
+        <v>8</v>
+      </c>
+      <c r="K393">
+        <v>29.62962962962963</v>
+      </c>
+      <c r="L393">
+        <v>7</v>
+      </c>
+      <c r="M393">
+        <v>25.92592592592592</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+      <c r="O393">
         <v>4</v>
       </c>
-      <c r="J393">
-        <v>7</v>
-      </c>
-      <c r="K393">
-        <v>28</v>
-      </c>
-      <c r="L393">
-        <v>6</v>
-      </c>
-      <c r="M393">
-        <v>35.29411764705883</v>
-      </c>
-      <c r="N393">
-        <v>0</v>
-      </c>
-      <c r="O393">
-        <v>3</v>
-      </c>
       <c r="P393">
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
     </row>
     <row r="394" spans="1:17">
@@ -23514,7 +23514,7 @@
         <v>2</v>
       </c>
       <c r="C396">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -23567,7 +23567,7 @@
         <v>1</v>
       </c>
       <c r="C397">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -23670,22 +23670,22 @@
         <v>414</v>
       </c>
       <c r="B399">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C399">
-        <v>0.9276437847866421</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D399">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E399">
-        <v>60</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G399">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H399">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>1</v>
       </c>
       <c r="K399">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L399">
         <v>3</v>
@@ -23723,22 +23723,22 @@
         <v>415</v>
       </c>
       <c r="B400">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C400">
-        <v>0.9276437847866421</v>
+        <v>1.41287284144427</v>
       </c>
       <c r="D400">
+        <v>3</v>
+      </c>
+      <c r="E400">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="F400">
         <v>1</v>
       </c>
-      <c r="E400">
-        <v>20</v>
-      </c>
-      <c r="F400">
-        <v>0</v>
-      </c>
       <c r="G400">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H400">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="J400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K400">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L400">
         <v>2</v>
@@ -24256,7 +24256,7 @@
         <v>2</v>
       </c>
       <c r="C410">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -24306,22 +24306,22 @@
         <v>426</v>
       </c>
       <c r="B411">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C411">
-        <v>4.638218923933209</v>
+        <v>6.750392464678178</v>
       </c>
       <c r="D411">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E411">
-        <v>64</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="F411">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G411">
-        <v>27.77777777777778</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -24333,13 +24333,13 @@
         <v>1</v>
       </c>
       <c r="K411">
-        <v>4</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L411">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M411">
-        <v>38.09523809523809</v>
+        <v>40</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -24362,7 +24362,7 @@
         <v>9</v>
       </c>
       <c r="C412">
-        <v>1.669758812615955</v>
+        <v>1.41287284144427</v>
       </c>
       <c r="D412">
         <v>5</v>
@@ -24521,7 +24521,7 @@
         <v>1</v>
       </c>
       <c r="C415">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -24624,22 +24624,22 @@
         <v>432</v>
       </c>
       <c r="B417">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C417">
-        <v>1.11317254174397</v>
+        <v>1.569858712715855</v>
       </c>
       <c r="D417">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E417">
         <v>50</v>
       </c>
       <c r="F417">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G417">
-        <v>16.66666666666666</v>
+        <v>37.5</v>
       </c>
       <c r="H417">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="J417">
+        <v>4</v>
+      </c>
+      <c r="K417">
+        <v>40</v>
+      </c>
+      <c r="L417">
         <v>3</v>
       </c>
-      <c r="K417">
-        <v>50</v>
-      </c>
-      <c r="L417">
-        <v>1</v>
-      </c>
       <c r="M417">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N417">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="418" spans="1:17">
@@ -24680,7 +24680,7 @@
         <v>1</v>
       </c>
       <c r="C418">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D418">
         <v>0</v>
@@ -25101,16 +25101,16 @@
         <v>441</v>
       </c>
       <c r="B426">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C426">
-        <v>3.153988868274583</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="D426">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E426">
-        <v>64.70588235294117</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="F426">
         <v>2</v>
@@ -25122,31 +25122,31 @@
         <v>1</v>
       </c>
       <c r="I426">
-        <v>5.88235294117647</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="J426">
+        <v>2</v>
+      </c>
+      <c r="K426">
+        <v>9.523809523809524</v>
+      </c>
+      <c r="L426">
+        <v>6</v>
+      </c>
+      <c r="M426">
+        <v>30</v>
+      </c>
+      <c r="N426">
+        <v>0</v>
+      </c>
+      <c r="O426">
         <v>1</v>
       </c>
-      <c r="K426">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L426">
-        <v>4</v>
-      </c>
-      <c r="M426">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="N426">
-        <v>0</v>
-      </c>
-      <c r="O426">
-        <v>0</v>
-      </c>
       <c r="P426">
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="427" spans="1:17">
@@ -25154,40 +25154,40 @@
         <v>442</v>
       </c>
       <c r="B427">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C427">
-        <v>1.298701298701298</v>
+        <v>1.569858712715855</v>
       </c>
       <c r="D427">
         <v>5</v>
       </c>
       <c r="E427">
-        <v>71.42857142857143</v>
+        <v>50</v>
       </c>
       <c r="F427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G427">
         <v>25</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J427">
         <v>2</v>
       </c>
       <c r="K427">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L427">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M427">
-        <v>57.14285714285714</v>
+        <v>60</v>
       </c>
       <c r="N427">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>443</v>
       </c>
       <c r="B428">
+        <v>4</v>
+      </c>
+      <c r="C428">
+        <v>0.627943485086342</v>
+      </c>
+      <c r="D428">
         <v>2</v>
-      </c>
-      <c r="C428">
-        <v>0.371057513914656</v>
-      </c>
-      <c r="D428">
-        <v>1</v>
       </c>
       <c r="E428">
         <v>50</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G428">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H428">
         <v>0</v>
@@ -25237,10 +25237,10 @@
         <v>0</v>
       </c>
       <c r="L428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M428">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="N428">
         <v>0</v>
@@ -25260,10 +25260,10 @@
         <v>444</v>
       </c>
       <c r="B429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -25316,7 +25316,7 @@
         <v>1</v>
       </c>
       <c r="C430">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -25740,7 +25740,7 @@
         <v>6</v>
       </c>
       <c r="C438">
-        <v>1.11317254174397</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D438">
         <v>4</v>
@@ -25846,7 +25846,7 @@
         <v>1</v>
       </c>
       <c r="C440">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -26055,16 +26055,16 @@
         <v>459</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C444">
-        <v>0</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -26111,7 +26111,7 @@
         <v>1</v>
       </c>
       <c r="C445">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -26161,16 +26161,16 @@
         <v>461</v>
       </c>
       <c r="B446">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C446">
-        <v>0.742115027829313</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D446">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E446">
-        <v>75</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -26188,13 +26188,13 @@
         <v>1</v>
       </c>
       <c r="K446">
-        <v>25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M446">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N446">
         <v>0</v>
@@ -26270,7 +26270,7 @@
         <v>9</v>
       </c>
       <c r="C448">
-        <v>1.669758812615955</v>
+        <v>1.41287284144427</v>
       </c>
       <c r="D448">
         <v>5</v>
@@ -26691,49 +26691,49 @@
         <v>471</v>
       </c>
       <c r="B456">
-        <v>515</v>
+        <v>598</v>
       </c>
       <c r="C456">
-        <v>95.54730983302412</v>
+        <v>93.87755102040816</v>
       </c>
       <c r="D456">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="E456">
-        <v>51.84466019417475</v>
+        <v>52.34113712374582</v>
       </c>
       <c r="F456">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="G456">
-        <v>40.58252427184466</v>
+        <v>41.54103852596315</v>
       </c>
       <c r="H456">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="I456">
-        <v>45.63106796116505</v>
+        <v>45.9866220735786</v>
       </c>
       <c r="J456">
         <v>3</v>
       </c>
       <c r="K456">
-        <v>0.58252427184466</v>
+        <v>0.501672240802675</v>
       </c>
       <c r="L456">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M456">
-        <v>13.57285429141717</v>
+        <v>12.20735785953177</v>
       </c>
       <c r="N456">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="O456">
         <v>0</v>
       </c>
       <c r="P456">
-        <v>53.19148936170212</v>
+        <v>54.18181818181819</v>
       </c>
       <c r="Q456">
         <v>0</v>
@@ -26797,16 +26797,16 @@
         <v>473</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C458">
-        <v>0.371057513914656</v>
+        <v>0.627943485086342</v>
       </c>
       <c r="D458">
         <v>1</v>
       </c>
       <c r="E458">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F458">
         <v>1</v>
@@ -26821,16 +26821,16 @@
         <v>0</v>
       </c>
       <c r="J458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K458">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M458">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="N458">
         <v>0</v>
@@ -26850,16 +26850,16 @@
         <v>474</v>
       </c>
       <c r="B459">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C459">
-        <v>3.710575139146568</v>
+        <v>3.610675039246468</v>
       </c>
       <c r="D459">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E459">
-        <v>30</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="F459">
         <v>14</v>
@@ -26877,7 +26877,7 @@
         <v>7</v>
       </c>
       <c r="K459">
-        <v>35</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L459">
         <v>5</v>
@@ -26903,22 +26903,22 @@
         <v>475</v>
       </c>
       <c r="B460">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C460">
-        <v>0</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E460">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G460">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H460">
         <v>0</v>
@@ -26933,10 +26933,10 @@
         <v>0</v>
       </c>
       <c r="L460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M460">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N460">
         <v>0</v>
@@ -26956,16 +26956,16 @@
         <v>476</v>
       </c>
       <c r="B461">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C461">
-        <v>2.22634508348794</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="D461">
         <v>4</v>
       </c>
       <c r="E461">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F461">
         <v>3</v>
@@ -26977,13 +26977,13 @@
         <v>1</v>
       </c>
       <c r="I461">
-        <v>8.333333333333332</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J461">
         <v>1</v>
       </c>
       <c r="K461">
-        <v>8.333333333333332</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L461">
         <v>5</v>
@@ -27009,22 +27009,22 @@
         <v>477</v>
       </c>
       <c r="B462">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C462">
-        <v>0.5565862708719851</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D462">
         <v>3</v>
       </c>
       <c r="E462">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F462">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G462">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H462">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K462">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L462">
         <v>1</v>
@@ -27274,52 +27274,52 @@
         <v>482</v>
       </c>
       <c r="B467">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="C467">
-        <v>53.24675324675324</v>
+        <v>52.74725274725275</v>
       </c>
       <c r="D467">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="E467">
-        <v>48.08362369337979</v>
+        <v>48.51190476190476</v>
       </c>
       <c r="F467">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G467">
-        <v>10.67615658362989</v>
+        <v>10.70336391437309</v>
       </c>
       <c r="H467">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I467">
-        <v>6.968641114982578</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="J467">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K467">
-        <v>5.574912891986063</v>
+        <v>5.654761904761905</v>
       </c>
       <c r="L467">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M467">
-        <v>13.63636363636363</v>
+        <v>15.01501501501502</v>
       </c>
       <c r="N467">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O467">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P467">
-        <v>40</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="Q467">
-        <v>37.5</v>
+        <v>36.84210526315789</v>
       </c>
     </row>
     <row r="468" spans="1:17">
@@ -27433,16 +27433,16 @@
         <v>485</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C470">
-        <v>0</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D470">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E470">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -28069,16 +28069,16 @@
         <v>497</v>
       </c>
       <c r="B482">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C482">
-        <v>1.484230055658627</v>
+        <v>1.41287284144427</v>
       </c>
       <c r="D482">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E482">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F482">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>3</v>
       </c>
       <c r="K482">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L482">
         <v>4</v>
@@ -28125,7 +28125,7 @@
         <v>1</v>
       </c>
       <c r="C483">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -28178,7 +28178,7 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>2.040816326530612</v>
+        <v>1.726844583987441</v>
       </c>
       <c r="D484">
         <v>5</v>
@@ -28228,16 +28228,16 @@
         <v>500</v>
       </c>
       <c r="B485">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C485">
-        <v>28.01484230055659</v>
+        <v>27.94348508634223</v>
       </c>
       <c r="D485">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E485">
-        <v>45.03311258278146</v>
+        <v>45.50561797752809</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -28246,34 +28246,34 @@
         <v>0</v>
       </c>
       <c r="H485">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I485">
-        <v>13.90728476821192</v>
+        <v>13.48314606741573</v>
       </c>
       <c r="J485">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K485">
-        <v>5.298013245033113</v>
+        <v>5.617977528089887</v>
       </c>
       <c r="L485">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M485">
-        <v>21.08843537414966</v>
+        <v>19.76047904191617</v>
       </c>
       <c r="N485">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P485">
-        <v>38.09523809523809</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="Q485">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="486" spans="1:17">
@@ -28284,7 +28284,7 @@
         <v>5</v>
       </c>
       <c r="C486">
-        <v>0.9276437847866421</v>
+        <v>0.784929356357927</v>
       </c>
       <c r="D486">
         <v>3</v>
@@ -28387,22 +28387,22 @@
         <v>503</v>
       </c>
       <c r="B488">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C488">
-        <v>0</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E488">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G488">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H488">
         <v>0</v>
@@ -28440,52 +28440,52 @@
         <v>504</v>
       </c>
       <c r="B489">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C489">
-        <v>32.83858998144712</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="D489">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E489">
-        <v>51.41242937853108</v>
+        <v>50.76923076923077</v>
       </c>
       <c r="F489">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G489">
-        <v>24.85549132947977</v>
+        <v>25.65445026178011</v>
       </c>
       <c r="H489">
         <v>4</v>
       </c>
       <c r="I489">
-        <v>2.259887005649717</v>
+        <v>2.051282051282051</v>
       </c>
       <c r="J489">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K489">
-        <v>12.42937853107345</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L489">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M489">
-        <v>26.55367231638418</v>
+        <v>26.42487046632124</v>
       </c>
       <c r="N489">
         <v>0</v>
       </c>
       <c r="O489">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P489">
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>40.90909090909091</v>
+        <v>40</v>
       </c>
     </row>
     <row r="490" spans="1:17">
@@ -28493,16 +28493,16 @@
         <v>505</v>
       </c>
       <c r="B490">
+        <v>3</v>
+      </c>
+      <c r="C490">
+        <v>0.470957613814756</v>
+      </c>
+      <c r="D490">
         <v>1</v>
       </c>
-      <c r="C490">
-        <v>0.185528756957328</v>
-      </c>
-      <c r="D490">
-        <v>0</v>
-      </c>
       <c r="E490">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -28546,10 +28546,10 @@
         <v>506</v>
       </c>
       <c r="B491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -28570,16 +28570,16 @@
         <v>0</v>
       </c>
       <c r="J491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K491">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M491">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -28705,34 +28705,34 @@
         <v>509</v>
       </c>
       <c r="B494">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C494">
-        <v>0.9276437847866421</v>
+        <v>1.255886970172684</v>
       </c>
       <c r="D494">
         <v>3</v>
       </c>
       <c r="E494">
-        <v>60</v>
+        <v>37.5</v>
       </c>
       <c r="F494">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G494">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I494">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J494">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K494">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="L494">
         <v>3</v>
@@ -28750,7 +28750,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="495" spans="1:17">
@@ -28761,7 +28761,7 @@
         <v>1</v>
       </c>
       <c r="C495">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>12</v>
       </c>
       <c r="C497">
-        <v>2.22634508348794</v>
+        <v>1.883830455259026</v>
       </c>
       <c r="D497">
         <v>4</v>
@@ -29662,7 +29662,7 @@
         <v>1</v>
       </c>
       <c r="C512">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -29765,16 +29765,16 @@
         <v>529</v>
       </c>
       <c r="B514">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C514">
-        <v>4.081632653061225</v>
+        <v>3.767660910518053</v>
       </c>
       <c r="D514">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E514">
-        <v>45.45454545454545</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="F514">
         <v>0</v>
@@ -29818,16 +29818,16 @@
         <v>530</v>
       </c>
       <c r="B515">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C515">
-        <v>3.525046382189239</v>
+        <v>3.924646781789639</v>
       </c>
       <c r="D515">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E515">
-        <v>31.57894736842105</v>
+        <v>32</v>
       </c>
       <c r="F515">
         <v>1</v>
@@ -29842,28 +29842,28 @@
         <v>0</v>
       </c>
       <c r="J515">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K515">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L515">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M515">
-        <v>23.52941176470588</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="N515">
         <v>0</v>
       </c>
       <c r="O515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P515">
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="516" spans="1:17">
@@ -30666,16 +30666,16 @@
         <v>546</v>
       </c>
       <c r="B531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E531">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F531">
         <v>0</v>
@@ -30772,16 +30772,16 @@
         <v>548</v>
       </c>
       <c r="B533">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C533">
-        <v>0</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E533">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="F533">
         <v>0</v>
@@ -30931,28 +30931,28 @@
         <v>551</v>
       </c>
       <c r="B536">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C536">
-        <v>5.380333951762523</v>
+        <v>6.750392464678178</v>
       </c>
       <c r="D536">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E536">
-        <v>48.27586206896552</v>
+        <v>58.13953488372093</v>
       </c>
       <c r="F536">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G536">
-        <v>29.62962962962963</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="H536">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I536">
-        <v>10.3448275862069</v>
+        <v>27.90697674418605</v>
       </c>
       <c r="J536">
         <v>0</v>
@@ -30961,19 +30961,19 @@
         <v>0</v>
       </c>
       <c r="L536">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M536">
-        <v>24</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="N536">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O536">
         <v>0</v>
       </c>
       <c r="P536">
-        <v>33.33333333333333</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="Q536">
         <v>0</v>
@@ -30984,16 +30984,16 @@
         <v>552</v>
       </c>
       <c r="B537">
+        <v>6</v>
+      </c>
+      <c r="C537">
+        <v>0.9419152276295131</v>
+      </c>
+      <c r="D537">
         <v>3</v>
       </c>
-      <c r="C537">
-        <v>0.5565862708719851</v>
-      </c>
-      <c r="D537">
-        <v>2</v>
-      </c>
       <c r="E537">
-        <v>66.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="F537">
         <v>2</v>
@@ -31008,16 +31008,16 @@
         <v>0</v>
       </c>
       <c r="J537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K537">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L537">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M537">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="N537">
         <v>0</v>
@@ -31037,22 +31037,22 @@
         <v>553</v>
       </c>
       <c r="B538">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C538">
-        <v>4.267161410018553</v>
+        <v>3.924646781789639</v>
       </c>
       <c r="D538">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E538">
-        <v>56.52173913043478</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="F538">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G538">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H538">
         <v>0</v>
@@ -31061,10 +31061,10 @@
         <v>0</v>
       </c>
       <c r="J538">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K538">
-        <v>13.04347826086956</v>
+        <v>16</v>
       </c>
       <c r="L538">
         <v>5</v>
@@ -31076,13 +31076,13 @@
         <v>0</v>
       </c>
       <c r="O538">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P538">
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>66.66666666666666</v>
+        <v>75</v>
       </c>
     </row>
     <row r="539" spans="1:17">
@@ -31146,7 +31146,7 @@
         <v>7</v>
       </c>
       <c r="C540">
-        <v>1.298701298701298</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="D540">
         <v>5</v>
@@ -31249,16 +31249,16 @@
         <v>557</v>
       </c>
       <c r="B542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E542">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F542">
         <v>0</v>
@@ -31355,28 +31355,28 @@
         <v>559</v>
       </c>
       <c r="B544">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C544">
-        <v>2.411873840445269</v>
+        <v>2.668759811616954</v>
       </c>
       <c r="D544">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E544">
-        <v>61.53846153846154</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="F544">
+        <v>4</v>
+      </c>
+      <c r="G544">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="H544">
         <v>3</v>
       </c>
-      <c r="G544">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="H544">
-        <v>2</v>
-      </c>
       <c r="I544">
-        <v>15.38461538461539</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="J544">
         <v>0</v>
@@ -31385,13 +31385,13 @@
         <v>0</v>
       </c>
       <c r="L544">
+        <v>4</v>
+      </c>
+      <c r="M544">
+        <v>25</v>
+      </c>
+      <c r="N544">
         <v>3</v>
-      </c>
-      <c r="M544">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="N544">
-        <v>2</v>
       </c>
       <c r="O544">
         <v>0</v>
@@ -31411,7 +31411,7 @@
         <v>22</v>
       </c>
       <c r="C545">
-        <v>4.081632653061225</v>
+        <v>3.453689167974882</v>
       </c>
       <c r="D545">
         <v>8</v>
@@ -31461,16 +31461,16 @@
         <v>561</v>
       </c>
       <c r="B546">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C546">
-        <v>1.298701298701298</v>
+        <v>1.255886970172684</v>
       </c>
       <c r="D546">
         <v>4</v>
       </c>
       <c r="E546">
-        <v>57.14285714285714</v>
+        <v>50</v>
       </c>
       <c r="F546">
         <v>1</v>
@@ -31488,7 +31488,7 @@
         <v>1</v>
       </c>
       <c r="K546">
-        <v>14.28571428571428</v>
+        <v>12.5</v>
       </c>
       <c r="L546">
         <v>3</v>
@@ -31567,16 +31567,16 @@
         <v>563</v>
       </c>
       <c r="B548">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C548">
-        <v>1.669758812615955</v>
+        <v>1.726844583987441</v>
       </c>
       <c r="D548">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E548">
-        <v>77.77777777777779</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="F548">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>2</v>
       </c>
       <c r="K548">
-        <v>22.22222222222222</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L548">
         <v>0</v>
@@ -31779,16 +31779,16 @@
         <v>567</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C552">
-        <v>0.5565862708719851</v>
+        <v>0.784929356357927</v>
       </c>
       <c r="D552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E552">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F552">
         <v>0</v>
@@ -31938,16 +31938,16 @@
         <v>570</v>
       </c>
       <c r="B555">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C555">
-        <v>6.307977736549166</v>
+        <v>5.965463108320251</v>
       </c>
       <c r="D555">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E555">
-        <v>47.05882352941176</v>
+        <v>50</v>
       </c>
       <c r="F555">
         <v>0</v>
@@ -31959,13 +31959,13 @@
         <v>3</v>
       </c>
       <c r="I555">
-        <v>8.823529411764707</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="J555">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K555">
-        <v>14.70588235294118</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L555">
         <v>6</v>
@@ -31983,7 +31983,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="Q555">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="556" spans="1:17">
@@ -32574,16 +32574,16 @@
         <v>582</v>
       </c>
       <c r="B567">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C567">
-        <v>3.896103896103896</v>
+        <v>3.610675039246468</v>
       </c>
       <c r="D567">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E567">
-        <v>38.09523809523809</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -32598,10 +32598,10 @@
         <v>0</v>
       </c>
       <c r="J567">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K567">
-        <v>19.04761904761905</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L567">
         <v>5</v>
@@ -32613,13 +32613,13 @@
         <v>0</v>
       </c>
       <c r="O567">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P567">
         <v>0</v>
       </c>
       <c r="Q567">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="568" spans="1:17">
@@ -32630,7 +32630,7 @@
         <v>1</v>
       </c>
       <c r="C568">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D568">
         <v>1</v>
@@ -32839,22 +32839,22 @@
         <v>587</v>
       </c>
       <c r="B572">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C572">
-        <v>3.339517625231911</v>
+        <v>3.453689167974882</v>
       </c>
       <c r="D572">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E572">
-        <v>66.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="F572">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G572">
-        <v>33.33333333333333</v>
+        <v>35</v>
       </c>
       <c r="H572">
         <v>0</v>
@@ -32866,13 +32866,13 @@
         <v>6</v>
       </c>
       <c r="K572">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L572">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M572">
-        <v>72.22222222222221</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="N572">
         <v>0</v>
@@ -32892,22 +32892,22 @@
         <v>588</v>
       </c>
       <c r="B573">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C573">
-        <v>15.21335807050093</v>
+        <v>15.69858712715856</v>
       </c>
       <c r="D573">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E573">
-        <v>56.09756097560976</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="F573">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G573">
-        <v>26.82926829268293</v>
+        <v>26</v>
       </c>
       <c r="H573">
         <v>0</v>
@@ -32916,28 +32916,28 @@
         <v>0</v>
       </c>
       <c r="J573">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K573">
-        <v>10.97560975609756</v>
+        <v>12</v>
       </c>
       <c r="L573">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M573">
-        <v>28.75</v>
+        <v>30.3030303030303</v>
       </c>
       <c r="N573">
         <v>0</v>
       </c>
       <c r="O573">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P573">
         <v>0</v>
       </c>
       <c r="Q573">
-        <v>77.77777777777779</v>
+        <v>83.33333333333334</v>
       </c>
     </row>
     <row r="574" spans="1:17">
@@ -32945,22 +32945,22 @@
         <v>589</v>
       </c>
       <c r="B574">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C574">
-        <v>4.823747680890538</v>
+        <v>4.709576138147567</v>
       </c>
       <c r="D574">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E574">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
       <c r="F574">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G574">
-        <v>64.70588235294117</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="H574">
         <v>0</v>
@@ -32969,10 +32969,10 @@
         <v>0</v>
       </c>
       <c r="J574">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K574">
-        <v>11.53846153846154</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L574">
         <v>3</v>
@@ -32984,13 +32984,13 @@
         <v>0</v>
       </c>
       <c r="O574">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P574">
         <v>0</v>
       </c>
       <c r="Q574">
-        <v>66.66666666666666</v>
+        <v>75</v>
       </c>
     </row>
     <row r="575" spans="1:17">
@@ -33001,7 +33001,7 @@
         <v>2</v>
       </c>
       <c r="C575">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D575">
         <v>1</v>
@@ -33157,40 +33157,40 @@
         <v>593</v>
       </c>
       <c r="B578">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C578">
-        <v>9.461966604823747</v>
+        <v>9.419152276295135</v>
       </c>
       <c r="D578">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E578">
-        <v>37.25490196078432</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="F578">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G578">
-        <v>54</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="H578">
         <v>6</v>
       </c>
       <c r="I578">
-        <v>11.76470588235294</v>
+        <v>10</v>
       </c>
       <c r="J578">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K578">
-        <v>9.803921568627452</v>
+        <v>10</v>
       </c>
       <c r="L578">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M578">
-        <v>37.25490196078432</v>
+        <v>33.89830508474576</v>
       </c>
       <c r="N578">
         <v>1</v>
@@ -33202,7 +33202,7 @@
         <v>16.66666666666666</v>
       </c>
       <c r="Q578">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="579" spans="1:17">
@@ -33213,7 +33213,7 @@
         <v>2</v>
       </c>
       <c r="C579">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D579">
         <v>1</v>
@@ -33263,16 +33263,16 @@
         <v>595</v>
       </c>
       <c r="B580">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C580">
-        <v>4.267161410018553</v>
+        <v>3.924646781789639</v>
       </c>
       <c r="D580">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E580">
-        <v>43.47826086956522</v>
+        <v>44</v>
       </c>
       <c r="F580">
         <v>4</v>
@@ -33287,16 +33287,16 @@
         <v>0</v>
       </c>
       <c r="J580">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K580">
-        <v>21.73913043478261</v>
+        <v>24</v>
       </c>
       <c r="L580">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M580">
-        <v>31.57894736842105</v>
+        <v>28</v>
       </c>
       <c r="N580">
         <v>0</v>
@@ -33308,7 +33308,7 @@
         <v>0</v>
       </c>
       <c r="Q580">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="581" spans="1:17">
@@ -33319,7 +33319,7 @@
         <v>23</v>
       </c>
       <c r="C581">
-        <v>4.267161410018553</v>
+        <v>3.610675039246468</v>
       </c>
       <c r="D581">
         <v>11</v>
@@ -33369,16 +33369,16 @@
         <v>597</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D582">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E582">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F582">
         <v>0</v>
@@ -33634,40 +33634,40 @@
         <v>602</v>
       </c>
       <c r="B587">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C587">
         <v>8.163265306122449</v>
       </c>
       <c r="D587">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E587">
-        <v>38.63636363636363</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="F587">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G587">
-        <v>63.63636363636363</v>
+        <v>57.69230769230769</v>
       </c>
       <c r="H587">
         <v>10</v>
       </c>
       <c r="I587">
-        <v>22.72727272727273</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="J587">
         <v>3</v>
       </c>
       <c r="K587">
-        <v>6.818181818181817</v>
+        <v>5.769230769230769</v>
       </c>
       <c r="L587">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M587">
-        <v>25.64102564102564</v>
+        <v>22.91666666666666</v>
       </c>
       <c r="N587">
         <v>2</v>
@@ -33690,7 +33690,7 @@
         <v>4</v>
       </c>
       <c r="C588">
-        <v>0.742115027829313</v>
+        <v>0.627943485086342</v>
       </c>
       <c r="D588">
         <v>1</v>
@@ -33846,16 +33846,16 @@
         <v>606</v>
       </c>
       <c r="B591">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C591">
-        <v>1.855287569573284</v>
+        <v>1.726844583987441</v>
       </c>
       <c r="D591">
         <v>5</v>
       </c>
       <c r="E591">
-        <v>50</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="F591">
         <v>0</v>
@@ -33873,7 +33873,7 @@
         <v>2</v>
       </c>
       <c r="K591">
-        <v>20</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L591">
         <v>2</v>
@@ -33899,16 +33899,16 @@
         <v>607</v>
       </c>
       <c r="B592">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="C592">
-        <v>45.26901669758813</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="D592">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E592">
-        <v>60.65573770491803</v>
+        <v>57.87545787545788</v>
       </c>
       <c r="F592">
         <v>3</v>
@@ -33917,34 +33917,34 @@
         <v>2.884615384615384</v>
       </c>
       <c r="H592">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I592">
-        <v>5.327868852459016</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="J592">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K592">
-        <v>9.836065573770492</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="L592">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M592">
-        <v>17.69547325102881</v>
+        <v>18.58736059479554</v>
       </c>
       <c r="N592">
         <v>7</v>
       </c>
       <c r="O592">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P592">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
       <c r="Q592">
-        <v>79.16666666666666</v>
+        <v>71.42857142857143</v>
       </c>
     </row>
     <row r="593" spans="1:17">
@@ -33952,22 +33952,22 @@
         <v>608</v>
       </c>
       <c r="B593">
+        <v>4</v>
+      </c>
+      <c r="C593">
+        <v>0.627943485086342</v>
+      </c>
+      <c r="D593">
         <v>2</v>
-      </c>
-      <c r="C593">
-        <v>0.371057513914656</v>
-      </c>
-      <c r="D593">
-        <v>1</v>
       </c>
       <c r="E593">
         <v>50</v>
       </c>
       <c r="F593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G593">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H593">
         <v>0</v>
@@ -34432,7 +34432,7 @@
         <v>6</v>
       </c>
       <c r="C602">
-        <v>1.11317254174397</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D602">
         <v>1</v>
@@ -34535,10 +34535,10 @@
         <v>619</v>
       </c>
       <c r="B604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D604">
         <v>0</v>
@@ -34588,34 +34588,34 @@
         <v>620</v>
       </c>
       <c r="B605">
+        <v>6</v>
+      </c>
+      <c r="C605">
+        <v>0.9419152276295131</v>
+      </c>
+      <c r="D605">
+        <v>2</v>
+      </c>
+      <c r="E605">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="F605">
+        <v>3</v>
+      </c>
+      <c r="G605">
+        <v>60</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+      <c r="I605">
+        <v>0</v>
+      </c>
+      <c r="J605">
         <v>1</v>
       </c>
-      <c r="C605">
-        <v>0.185528756957328</v>
-      </c>
-      <c r="D605">
-        <v>0</v>
-      </c>
-      <c r="E605">
-        <v>0</v>
-      </c>
-      <c r="F605">
-        <v>0</v>
-      </c>
-      <c r="G605">
-        <v>0</v>
-      </c>
-      <c r="H605">
-        <v>0</v>
-      </c>
-      <c r="I605">
-        <v>0</v>
-      </c>
-      <c r="J605">
-        <v>0</v>
-      </c>
       <c r="K605">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L605">
         <v>0</v>
@@ -34627,13 +34627,13 @@
         <v>0</v>
       </c>
       <c r="O605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P605">
         <v>0</v>
       </c>
       <c r="Q605">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="606" spans="1:17">
@@ -34641,16 +34641,16 @@
         <v>621</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C606">
-        <v>0.185528756957328</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D606">
         <v>1</v>
       </c>
       <c r="E606">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F606">
         <v>0</v>
@@ -34750,7 +34750,7 @@
         <v>2</v>
       </c>
       <c r="C608">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D608">
         <v>0</v>
@@ -34803,7 +34803,7 @@
         <v>6</v>
       </c>
       <c r="C609">
-        <v>1.11317254174397</v>
+        <v>0.9419152276295131</v>
       </c>
       <c r="D609">
         <v>1</v>
@@ -34856,7 +34856,7 @@
         <v>1</v>
       </c>
       <c r="C610">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D610">
         <v>0</v>
@@ -34909,7 +34909,7 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>2.040816326530612</v>
+        <v>1.726844583987441</v>
       </c>
       <c r="D611">
         <v>0</v>
@@ -35068,7 +35068,7 @@
         <v>3</v>
       </c>
       <c r="C614">
-        <v>0.5565862708719851</v>
+        <v>0.470957613814756</v>
       </c>
       <c r="D614">
         <v>0</v>
@@ -35227,7 +35227,7 @@
         <v>9</v>
       </c>
       <c r="C617">
-        <v>1.669758812615955</v>
+        <v>1.41287284144427</v>
       </c>
       <c r="D617">
         <v>0</v>
@@ -35280,7 +35280,7 @@
         <v>13</v>
       </c>
       <c r="C618">
-        <v>2.411873840445269</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="D618">
         <v>0</v>
@@ -36337,16 +36337,16 @@
         <v>653</v>
       </c>
       <c r="B638">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C638">
-        <v>2.597402597402597</v>
+        <v>2.82574568288854</v>
       </c>
       <c r="D638">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E638">
-        <v>50</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F638">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>4</v>
       </c>
       <c r="K638">
-        <v>28.57142857142857</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L638">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M638">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="N638">
         <v>0</v>
@@ -36390,10 +36390,10 @@
         <v>654</v>
       </c>
       <c r="B639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C639">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D639">
         <v>0</v>
@@ -36420,10 +36420,10 @@
         <v>0</v>
       </c>
       <c r="L639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M639">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N639">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>655</v>
       </c>
       <c r="B640">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C640">
-        <v>6.493506493506493</v>
+        <v>6.593406593406594</v>
       </c>
       <c r="D640">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E640">
-        <v>57.14285714285714</v>
+        <v>59.52380952380953</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -36470,13 +36470,13 @@
         <v>4</v>
       </c>
       <c r="K640">
-        <v>11.42857142857143</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L640">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M640">
-        <v>45.71428571428572</v>
+        <v>48.64864864864865</v>
       </c>
       <c r="N640">
         <v>0</v>
@@ -36549,40 +36549,40 @@
         <v>657</v>
       </c>
       <c r="B642">
+        <v>5</v>
+      </c>
+      <c r="C642">
+        <v>0.784929356357927</v>
+      </c>
+      <c r="D642">
+        <v>2</v>
+      </c>
+      <c r="E642">
+        <v>40</v>
+      </c>
+      <c r="F642">
+        <v>0</v>
+      </c>
+      <c r="G642">
+        <v>0</v>
+      </c>
+      <c r="H642">
+        <v>0</v>
+      </c>
+      <c r="I642">
+        <v>0</v>
+      </c>
+      <c r="J642">
+        <v>0</v>
+      </c>
+      <c r="K642">
+        <v>0</v>
+      </c>
+      <c r="L642">
         <v>3</v>
       </c>
-      <c r="C642">
-        <v>0.5565862708719851</v>
-      </c>
-      <c r="D642">
-        <v>1</v>
-      </c>
-      <c r="E642">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="F642">
-        <v>0</v>
-      </c>
-      <c r="G642">
-        <v>0</v>
-      </c>
-      <c r="H642">
-        <v>0</v>
-      </c>
-      <c r="I642">
-        <v>0</v>
-      </c>
-      <c r="J642">
-        <v>0</v>
-      </c>
-      <c r="K642">
-        <v>0</v>
-      </c>
-      <c r="L642">
-        <v>2</v>
-      </c>
       <c r="M642">
-        <v>66.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="N642">
         <v>0</v>
@@ -36655,22 +36655,22 @@
         <v>659</v>
       </c>
       <c r="B644">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C644">
-        <v>0.371057513914656</v>
+        <v>0.627943485086342</v>
       </c>
       <c r="D644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E644">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G644">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H644">
         <v>0</v>
@@ -36679,28 +36679,28 @@
         <v>0</v>
       </c>
       <c r="J644">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K644">
         <v>100</v>
       </c>
       <c r="L644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M644">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N644">
         <v>0</v>
       </c>
       <c r="O644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P644">
         <v>0</v>
       </c>
       <c r="Q644">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="645" spans="1:17">
@@ -36814,13 +36814,13 @@
         <v>662</v>
       </c>
       <c r="B647">
+        <v>4</v>
+      </c>
+      <c r="C647">
+        <v>0.627943485086342</v>
+      </c>
+      <c r="D647">
         <v>2</v>
-      </c>
-      <c r="C647">
-        <v>0.371057513914656</v>
-      </c>
-      <c r="D647">
-        <v>1</v>
       </c>
       <c r="E647">
         <v>50</v>
@@ -36838,10 +36838,10 @@
         <v>0</v>
       </c>
       <c r="J647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K647">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L647">
         <v>2</v>
@@ -37291,16 +37291,16 @@
         <v>671</v>
       </c>
       <c r="B656">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C656">
-        <v>0.5565862708719851</v>
+        <v>0.627943485086342</v>
       </c>
       <c r="D656">
         <v>1</v>
       </c>
       <c r="E656">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="F656">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>2</v>
       </c>
       <c r="I656">
-        <v>66.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="J656">
         <v>0</v>
@@ -37321,10 +37321,10 @@
         <v>0</v>
       </c>
       <c r="L656">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M656">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N656">
         <v>1</v>
@@ -37450,22 +37450,22 @@
         <v>674</v>
       </c>
       <c r="B659">
+        <v>4</v>
+      </c>
+      <c r="C659">
+        <v>0.627943485086342</v>
+      </c>
+      <c r="D659">
+        <v>3</v>
+      </c>
+      <c r="E659">
+        <v>75</v>
+      </c>
+      <c r="F659">
         <v>1</v>
       </c>
-      <c r="C659">
-        <v>0.185528756957328</v>
-      </c>
-      <c r="D659">
-        <v>1</v>
-      </c>
-      <c r="E659">
-        <v>100</v>
-      </c>
-      <c r="F659">
-        <v>0</v>
-      </c>
       <c r="G659">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H659">
         <v>0</v>
@@ -37556,10 +37556,10 @@
         <v>676</v>
       </c>
       <c r="B661">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C661">
-        <v>0</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D661">
         <v>0</v>
@@ -37580,10 +37580,10 @@
         <v>0</v>
       </c>
       <c r="J661">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K661">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L661">
         <v>0</v>
@@ -38354,7 +38354,7 @@
         <v>1</v>
       </c>
       <c r="C676">
-        <v>0.185528756957328</v>
+        <v>0.156985871271585</v>
       </c>
       <c r="D676">
         <v>0</v>
@@ -38457,52 +38457,52 @@
         <v>693</v>
       </c>
       <c r="B678">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C678">
-        <v>15.58441558441558</v>
+        <v>14.1287284144427</v>
       </c>
       <c r="D678">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E678">
-        <v>53.57142857142857</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F678">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G678">
-        <v>8.333333333333332</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="H678">
         <v>1</v>
       </c>
       <c r="I678">
-        <v>1.19047619047619</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="J678">
+        <v>5</v>
+      </c>
+      <c r="K678">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="L678">
+        <v>31</v>
+      </c>
+      <c r="M678">
+        <v>34.83146067415731</v>
+      </c>
+      <c r="N678">
+        <v>0</v>
+      </c>
+      <c r="O678">
         <v>4</v>
       </c>
-      <c r="K678">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L678">
-        <v>30</v>
-      </c>
-      <c r="M678">
-        <v>37.03703703703704</v>
-      </c>
-      <c r="N678">
-        <v>0</v>
-      </c>
-      <c r="O678">
-        <v>3</v>
-      </c>
       <c r="P678">
         <v>0</v>
       </c>
       <c r="Q678">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="679" spans="1:17">
@@ -39149,7 +39149,7 @@
         <v>2</v>
       </c>
       <c r="C691">
-        <v>0.371057513914656</v>
+        <v>0.313971742543171</v>
       </c>
       <c r="D691">
         <v>1</v>
